--- a/Docs/任务及进度.xlsx
+++ b/Docs/任务及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,22 @@
   </si>
   <si>
     <t>实际开发完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radioTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -322,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -340,7 +356,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -354,7 +370,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -368,7 +384,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -382,7 +398,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -396,7 +412,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -410,7 +426,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -428,7 +444,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -446,7 +462,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -460,7 +476,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -478,7 +494,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -496,7 +512,7 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -514,7 +530,59 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -537,19 +605,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF00B050"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
@@ -577,45 +632,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
@@ -647,23 +663,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:U15" totalsRowShown="0">
   <autoFilter ref="A1:U15"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="控件名" dataDxfId="17"/>
-    <tableColumn id="2" name="css文件名" dataDxfId="16">
+    <tableColumn id="1" name="控件名" dataDxfId="20"/>
+    <tableColumn id="2" name="css文件名" dataDxfId="19">
       <calculatedColumnFormula>CONCATENATE("jui.j"&amp;A2&amp;".css")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Script文件名" dataDxfId="15">
+    <tableColumn id="3" name="Script文件名" dataDxfId="18">
       <calculatedColumnFormula>CONCATENATE("jui.j"&amp;A2&amp;".js")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="测试文件名" dataDxfId="14">
+    <tableColumn id="4" name="测试文件名" dataDxfId="17">
       <calculatedColumnFormula>CONCATENATE(A2&amp;"Html.cshtml")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Demo文件名" dataDxfId="12">
+    <tableColumn id="5" name="Demo文件名" dataDxfId="16">
       <calculatedColumnFormula>CONCATENATE(A2&amp;".cshtml")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="功能说明" dataDxfId="13"/>
-    <tableColumn id="7" name="人员" dataDxfId="20"/>
-    <tableColumn id="8" name="时间(天)" dataDxfId="19"/>
-    <tableColumn id="9" name="状态" dataDxfId="18"/>
+    <tableColumn id="6" name="功能说明" dataDxfId="15"/>
+    <tableColumn id="7" name="人员" dataDxfId="14"/>
+    <tableColumn id="8" name="时间(天)" dataDxfId="13"/>
+    <tableColumn id="9" name="状态" dataDxfId="12"/>
     <tableColumn id="17" name="预计开始时间" dataDxfId="11"/>
     <tableColumn id="18" name="预计开发完成时间" dataDxfId="10"/>
     <tableColumn id="19" name="预计测试完成时间" dataDxfId="9"/>
@@ -971,7 +987,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,19 +1082,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
+        <f t="shared" ref="B2:B15" si="0">CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
         <v>jui.jbutton.css</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A2&amp;".js")</f>
+        <f t="shared" ref="C2:C15" si="1">CONCATENATE("jui.j"&amp;A2&amp;".js")</f>
         <v>jui.jbutton.js</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>CONCATENATE(A2&amp;"Html.cshtml")</f>
+        <f t="shared" ref="D2:D15" si="2">CONCATENATE(A2&amp;"Html.cshtml")</f>
         <v>buttonHtml.cshtml</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>CONCATENATE(A2&amp;".cshtml")</f>
+        <f t="shared" ref="E2:E15" si="3">CONCATENATE(A2&amp;".cshtml")</f>
         <v>button.cshtml</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1088,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3">
         <v>41176</v>
       </c>
       <c r="K2" s="3">
-        <v>41178</v>
+        <v>41176</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -1102,19 +1118,19 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A3&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jtip.css</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A3&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jtip.js</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>CONCATENATE(A3&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>tipHtml.cshtml</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>CONCATENATE(A3&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>tip.cshtml</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1127,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="3">
+        <v>41177</v>
+      </c>
+      <c r="K3" s="3">
         <v>41179</v>
-      </c>
-      <c r="K3" s="3">
-        <v>41181</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1138,19 +1154,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A4&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jcheckbox.css</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A4&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jcheckbox.js</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>CONCATENATE(A4&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>checkboxHtml.cshtml</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>CONCATENATE(A4&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>checkbox.cshtml</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1160,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>41190</v>
+        <v>41180</v>
       </c>
       <c r="K4" s="3">
-        <v>41191</v>
+        <v>41180</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1174,19 +1190,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A5&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jradio.css</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A5&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jradio.js</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>CONCATENATE(A5&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>radioHtml.cshtml</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>CONCATENATE(A5&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>radio.cshtml</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1196,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>41192</v>
+        <v>41181</v>
       </c>
       <c r="K5" s="3">
-        <v>41193</v>
+        <v>41181</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1210,19 +1226,19 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A6&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jselect.css</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A6&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jselect.js</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>CONCATENATE(A6&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>selectHtml.cshtml</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>CONCATENATE(A6&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>select.cshtml</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1235,10 +1251,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="3">
-        <v>41194</v>
+        <v>41190</v>
       </c>
       <c r="K6" s="3">
-        <v>41198</v>
+        <v>41192</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1246,19 +1262,19 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A7&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jsortSelect.css</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A7&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jsortSelect.js</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>CONCATENATE(A7&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>sortSelectHtml.cshtml</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>CONCATENATE(A7&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>sortSelect.cshtml</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1271,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="3">
-        <v>41199</v>
+        <v>41193</v>
       </c>
       <c r="K7" s="3">
-        <v>41200</v>
+        <v>41194</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1282,19 +1298,19 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A8&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jmultiSelect.css</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A8&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jmultiSelect.js</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>CONCATENATE(A8&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>multiSelectHtml.cshtml</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>CONCATENATE(A8&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>multiSelect.cshtml</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1307,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="J8" s="3">
-        <v>41201</v>
+        <v>41195</v>
       </c>
       <c r="K8" s="3">
-        <v>41204</v>
+        <v>41196</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1318,19 +1334,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A9&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jleftMenu.css</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A9&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jleftMenu.js</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>CONCATENATE(A9&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>leftMenuHtml.cshtml</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>CONCATENATE(A9&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>leftMenu.cshtml</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1348,19 +1364,19 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A10&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jdatapager.css</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A10&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jdatapager.js</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>CONCATENATE(A10&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>datapagerHtml.cshtml</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>CONCATENATE(A10&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>datapager.cshtml</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1378,19 +1394,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A11&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jheadMenu.css</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A11&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jheadMenu.js</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>CONCATENATE(A11&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>headMenuHtml.cshtml</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>CONCATENATE(A11&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>headMenu.cshtml</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1414,19 +1430,19 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A12&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jdatetimepicker.css</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A12&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jdatetimepicker.js</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>CONCATENATE(A12&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>datetimepickerHtml.cshtml</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>CONCATENATE(A12&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>datetimepicker.cshtml</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1450,19 +1466,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A13&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jtable.css</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A13&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jtable.js</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>CONCATENATE(A13&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>tableHtml.cshtml</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>CONCATENATE(A13&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>table.cshtml</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1486,19 +1502,19 @@
         <v>47</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A14&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jlink.css</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A14&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jlink.js</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>CONCATENATE(A14&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>linkHtml.cshtml</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>CONCATENATE(A14&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>link.cshtml</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1508,13 +1524,13 @@
         <v>53</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
         <v>41193</v>
       </c>
       <c r="K14" s="3">
-        <v>41194</v>
+        <v>41193</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1522,19 +1538,19 @@
         <v>49</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A15&amp;".css")</f>
+        <f t="shared" si="0"/>
         <v>jui.jlinkButton.css</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A15&amp;".js")</f>
+        <f t="shared" si="1"/>
         <v>jui.jlinkButton.js</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>CONCATENATE(A15&amp;"Html.cshtml")</f>
+        <f t="shared" si="2"/>
         <v>linkButtonHtml.cshtml</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>CONCATENATE(A15&amp;".cshtml")</f>
+        <f t="shared" si="3"/>
         <v>linkButton.cshtml</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1544,13 +1560,13 @@
         <v>53</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>41197</v>
+        <v>41194</v>
       </c>
       <c r="K15" s="3">
-        <v>41198</v>
+        <v>41194</v>
       </c>
     </row>
   </sheetData>
@@ -1565,15 +1581,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
@@ -1661,6 +1677,38 @@
       </c>
       <c r="G3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/任务及进度.xlsx
+++ b/Docs/任务及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一期" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,166 +114,220 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>雷德承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询区生成控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序专用的下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo界面完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML检验通过时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS接口确定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo测试完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选框的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkButton的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供日期、时间的选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻页控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张建</t>
+  </si>
+  <si>
+    <t>张建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开发完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计测试完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际测试完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开发完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+  </si>
+  <si>
+    <t>checkTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radioTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在table第一列生成checkbox，支持翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在table第一列生成radio，支持翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>详细需求再沟通(包含样式和验证)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radioTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在tree第一列生成checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在tree第一列生成radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雷德承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sortSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询区生成控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序专用的下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo界面完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML检验通过时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS接口确定时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo测试完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选框的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选框的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkButton的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供日期、时间的选择框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻页控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张建</t>
-  </si>
-  <si>
-    <t>张建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计开发完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计测试完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际测试完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开发完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radioTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证text</t>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询区控件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +397,312 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -662,6 +1021,44 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:U15" totalsRowShown="0">
   <autoFilter ref="A1:U15"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="控件名" dataDxfId="41"/>
+    <tableColumn id="2" name="css文件名" dataDxfId="40">
+      <calculatedColumnFormula>CONCATENATE("jui.j"&amp;A2&amp;".css")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Script文件名" dataDxfId="39">
+      <calculatedColumnFormula>CONCATENATE("jui.j"&amp;A2&amp;".js")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="测试文件名" dataDxfId="38">
+      <calculatedColumnFormula>CONCATENATE(A2&amp;"Html.cshtml")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Demo文件名" dataDxfId="37">
+      <calculatedColumnFormula>CONCATENATE(A2&amp;".cshtml")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="功能说明" dataDxfId="36"/>
+    <tableColumn id="7" name="人员" dataDxfId="35"/>
+    <tableColumn id="8" name="时间(天)" dataDxfId="34"/>
+    <tableColumn id="9" name="状态" dataDxfId="33"/>
+    <tableColumn id="17" name="预计开始时间" dataDxfId="32"/>
+    <tableColumn id="18" name="预计开发完成时间" dataDxfId="31"/>
+    <tableColumn id="19" name="预计测试完成时间" dataDxfId="30"/>
+    <tableColumn id="10" name="实际开始时间" dataDxfId="29"/>
+    <tableColumn id="20" name="实际开发完成时间" dataDxfId="28"/>
+    <tableColumn id="21" name="实际测试完成时间" dataDxfId="27"/>
+    <tableColumn id="11" name="HTML完成时间" dataDxfId="26"/>
+    <tableColumn id="12" name="HTML检验通过时间" dataDxfId="25"/>
+    <tableColumn id="13" name="JS接口确定时间" dataDxfId="24"/>
+    <tableColumn id="14" name="JS完成时间" dataDxfId="23"/>
+    <tableColumn id="15" name="Demo界面完成时间" dataDxfId="22"/>
+    <tableColumn id="16" name="Demo测试完成时间" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:U8" totalsRowShown="0">
+  <autoFilter ref="A1:U8"/>
   <tableColumns count="21">
     <tableColumn id="1" name="控件名" dataDxfId="20"/>
     <tableColumn id="2" name="css文件名" dataDxfId="19">
@@ -986,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1397,7 @@
     <col min="6" max="6" width="24.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="3" bestFit="1" customWidth="1"/>
@@ -1035,46 +1432,46 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1098,7 +1495,7 @@
         <v>button.cshtml</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -1106,6 +1503,9 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J2" s="3">
         <v>41176</v>
       </c>
@@ -1115,7 +1515,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1134,13 +1534,16 @@
         <v>tip.cshtml</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="J3" s="3">
         <v>41177</v>
@@ -1170,13 +1573,16 @@
         <v>checkbox.cshtml</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="J4" s="3">
         <v>41180</v>
@@ -1206,7 +1612,7 @@
         <v>radio.cshtml</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -1214,6 +1620,9 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J5" s="3">
         <v>41181</v>
       </c>
@@ -1223,7 +1632,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1242,10 +1651,10 @@
         <v>select.cshtml</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1259,7 +1668,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1278,10 +1687,10 @@
         <v>sortSelect.cshtml</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -1295,7 +1704,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1314,19 +1723,19 @@
         <v>multiSelect.cshtml</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="J8" s="3">
-        <v>41195</v>
+        <v>41197</v>
       </c>
       <c r="K8" s="3">
-        <v>41196</v>
+        <v>41198</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1358,6 +1767,9 @@
       <c r="H9" s="1">
         <v>2</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1380,13 +1792,16 @@
         <v>datapager.cshtml</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1418,6 +1833,9 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J11" s="3">
         <v>41176</v>
       </c>
@@ -1446,13 +1864,16 @@
         <v>datetimepicker.cshtml</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="J12" s="3">
         <v>41179</v>
@@ -1490,6 +1911,9 @@
       <c r="H13" s="1">
         <v>3</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="3">
         <v>41190</v>
       </c>
@@ -1499,7 +1923,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1518,14 +1942,17 @@
         <v>link.cshtml</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J14" s="3">
         <v>41193</v>
       </c>
@@ -1535,7 +1962,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1554,14 +1981,17 @@
         <v>linkButton.cshtml</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J15" s="3">
         <v>41194</v>
       </c>
@@ -1571,6 +2001,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15">
+      <formula1>"未开始,HTML完成,开发完成,测试完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
@@ -1581,10 +2016,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="21.625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B5" si="0">CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
+        <v>jui.jcheckTable.css</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C5" si="1">CONCATENATE("jui.j"&amp;A2&amp;".js")</f>
+        <v>jui.jcheckTable.js</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D5" si="2">CONCATENATE(A2&amp;"Html.cshtml")</f>
+        <v>checkTableHtml.cshtml</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:E5" si="3">CONCATENATE(A2&amp;".cshtml")</f>
+        <v>checkTable.cshtml</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="3">
+        <v>41197</v>
+      </c>
+      <c r="K2" s="3">
+        <v>41198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>jui.jradioTable.css</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>jui.jradioTable.js</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>radioTableHtml.cshtml</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>radioTable.cshtml</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="3">
+        <v>41199</v>
+      </c>
+      <c r="K3" s="3">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>jui.jtree.css</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>jui.jtree.js</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>treeHtml.cshtml</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>tree.cshtml</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3">
+        <v>41201</v>
+      </c>
+      <c r="K4" s="3">
+        <v>41206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>jui.jtext.css</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>jui.jtext.js</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>textHtml.cshtml</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>text.cshtml</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="3">
+        <v>41199</v>
+      </c>
+      <c r="K5" s="3">
+        <v>41207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" ref="B6:B7" si="4">CONCATENATE("jui.j"&amp;A6&amp;".css")</f>
+        <v>jui.jcheckTree.css</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" ref="C6:C7" si="5">CONCATENATE("jui.j"&amp;A6&amp;".js")</f>
+        <v>jui.jcheckTree.js</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6:D7" si="6">CONCATENATE(A6&amp;"Html.cshtml")</f>
+        <v>checkTreeHtml.cshtml</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" ref="E6:E7" si="7">CONCATENATE(A6&amp;".cshtml")</f>
+        <v>checkTree.cshtml</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="3">
+        <v>41207</v>
+      </c>
+      <c r="K6" s="3">
+        <v>41208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>jui.jradioTree.css</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>jui.jradioTree.js</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>radioTreeHtml.cshtml</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>radioTree.cshtml</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="3">
+        <v>41211</v>
+      </c>
+      <c r="K7" s="3">
+        <v>41212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" ref="B8" si="8">CONCATENATE("jui.j"&amp;A8&amp;".css")</f>
+        <v>jui.jsearch.css</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" ref="C8" si="9">CONCATENATE("jui.j"&amp;A8&amp;".js")</f>
+        <v>jui.jsearch.js</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" ref="D8" si="10">CONCATENATE(A8&amp;"Html.cshtml")</f>
+        <v>searchHtml.cshtml</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" ref="E8" si="11">CONCATENATE(A8&amp;".cshtml")</f>
+        <v>search.cshtml</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="3">
+        <v>41208</v>
+      </c>
+      <c r="K8" s="3">
+        <v>41212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8">
+      <formula1>"未开始,HTML完成,开发完成,测试完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1630,7 +2447,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
@@ -1649,15 +2466,15 @@
         <v>search.cshtml</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE("jui.j"&amp;A3&amp;".css")</f>
@@ -1679,25 +2496,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -1705,7 +2506,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -1714,18 +2515,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/任务及进度.xlsx
+++ b/Docs/任务及进度.xlsx
@@ -4,28 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一期" sheetId="1" r:id="rId1"/>
     <sheet name="二期" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="三期" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,47 +106,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>雷德承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序专用的下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo界面完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML检验通过时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS接口确定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo测试完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选框的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkButton的标准样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供日期、时间的选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻页控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷德承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sortSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询区生成控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序专用的下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选下拉框</t>
+  </si>
+  <si>
+    <t>张建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开发完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计测试完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际测试完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开发完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+  </si>
+  <si>
+    <t>在table第一列生成checkbox，支持翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在table第一列生成radio，支持翻页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,102 +256,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo界面完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML检验通过时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS接口确定时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo测试完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选框的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选框的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkButton的标准样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供日期、时间的选择框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻页控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张建</t>
-  </si>
-  <si>
-    <t>张建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计开发完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计测试完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际测试完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开发完成时间</t>
+    <t>生成树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>详细需求再沟通(包含样式和验证)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radioTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在tree第一列生成checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在tree第一列生成radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询区控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radioTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,73 +303,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发完成</t>
-  </si>
-  <si>
-    <t>checkTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radioTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在table第一列生成checkbox，支持翻页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在table第一列生成radio，支持翻页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>详细需求再沟通(包含样式和验证)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radioTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在tree第一列生成checkbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在tree第一列生成radio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询区控件</t>
+    <t>scrollbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美化滚动条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +377,312 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1021,6 +1306,44 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:U15" totalsRowShown="0">
   <autoFilter ref="A1:U15"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="控件名" dataDxfId="62"/>
+    <tableColumn id="2" name="css文件名" dataDxfId="61">
+      <calculatedColumnFormula>CONCATENATE("jui.j"&amp;A2&amp;".css")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Script文件名" dataDxfId="60">
+      <calculatedColumnFormula>CONCATENATE("jui.j"&amp;A2&amp;".js")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="测试文件名" dataDxfId="59">
+      <calculatedColumnFormula>CONCATENATE(A2&amp;"Html.cshtml")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Demo文件名" dataDxfId="58">
+      <calculatedColumnFormula>CONCATENATE(A2&amp;".cshtml")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="功能说明" dataDxfId="57"/>
+    <tableColumn id="7" name="人员" dataDxfId="56"/>
+    <tableColumn id="8" name="时间(天)" dataDxfId="55"/>
+    <tableColumn id="9" name="状态" dataDxfId="54"/>
+    <tableColumn id="17" name="预计开始时间" dataDxfId="53"/>
+    <tableColumn id="18" name="预计开发完成时间" dataDxfId="52"/>
+    <tableColumn id="19" name="预计测试完成时间" dataDxfId="51"/>
+    <tableColumn id="10" name="实际开始时间" dataDxfId="50"/>
+    <tableColumn id="20" name="实际开发完成时间" dataDxfId="49"/>
+    <tableColumn id="21" name="实际测试完成时间" dataDxfId="48"/>
+    <tableColumn id="11" name="HTML完成时间" dataDxfId="47"/>
+    <tableColumn id="12" name="HTML检验通过时间" dataDxfId="46"/>
+    <tableColumn id="13" name="JS接口确定时间" dataDxfId="45"/>
+    <tableColumn id="14" name="JS完成时间" dataDxfId="44"/>
+    <tableColumn id="15" name="Demo界面完成时间" dataDxfId="43"/>
+    <tableColumn id="16" name="Demo测试完成时间" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:U8" totalsRowShown="0">
+  <autoFilter ref="A1:U8"/>
   <tableColumns count="21">
     <tableColumn id="1" name="控件名" dataDxfId="41"/>
     <tableColumn id="2" name="css文件名" dataDxfId="40">
@@ -1056,8 +1379,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A1:U8" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_24" displayName="表2_24" ref="A1:U8" totalsRowShown="0">
   <autoFilter ref="A1:U8"/>
   <tableColumns count="21">
     <tableColumn id="1" name="控件名" dataDxfId="20"/>
@@ -1411,72 +1734,72 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="str">
         <f t="shared" ref="B2:B15" si="0">CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
@@ -1495,16 +1818,16 @@
         <v>button.cshtml</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3">
         <v>41176</v>
@@ -1515,7 +1838,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1534,16 +1857,16 @@
         <v>tip.cshtml</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3">
         <v>41177</v>
@@ -1554,7 +1877,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1573,16 +1896,16 @@
         <v>checkbox.cshtml</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J4" s="3">
         <v>41180</v>
@@ -1593,7 +1916,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1612,16 +1935,16 @@
         <v>radio.cshtml</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3">
         <v>41181</v>
@@ -1632,7 +1955,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1651,10 +1974,10 @@
         <v>select.cshtml</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1668,7 +1991,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1687,10 +2010,10 @@
         <v>sortSelect.cshtml</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -1704,7 +2027,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1723,10 +2046,10 @@
         <v>multiSelect.cshtml</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -1740,7 +2063,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1759,21 +2082,21 @@
         <v>leftMenu.cshtml</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1792,21 +2115,21 @@
         <v>datapager.cshtml</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1825,16 +2148,16 @@
         <v>headMenu.cshtml</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3">
         <v>41176</v>
@@ -1845,7 +2168,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1864,16 +2187,16 @@
         <v>datetimepicker.cshtml</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J12" s="3">
         <v>41179</v>
@@ -1884,7 +2207,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1903,16 +2226,16 @@
         <v>table.cshtml</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J13" s="3">
         <v>41190</v>
@@ -1923,7 +2246,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1942,16 +2265,16 @@
         <v>link.cshtml</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J14" s="3">
         <v>41193</v>
@@ -1962,7 +2285,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1981,16 +2304,16 @@
         <v>linkButton.cshtml</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J15" s="3">
         <v>41194</v>
@@ -2018,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2046,100 +2369,100 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="S1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B5" si="0">CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
+        <f>CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
         <v>jui.jcheckTable.css</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C5" si="1">CONCATENATE("jui.j"&amp;A2&amp;".js")</f>
+        <f t="shared" ref="C2:C5" si="0">CONCATENATE("jui.j"&amp;A2&amp;".js")</f>
         <v>jui.jcheckTable.js</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D5" si="2">CONCATENATE(A2&amp;"Html.cshtml")</f>
+        <f t="shared" ref="D2:D5" si="1">CONCATENATE(A2&amp;"Html.cshtml")</f>
         <v>checkTableHtml.cshtml</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E5" si="3">CONCATENATE(A2&amp;".cshtml")</f>
+        <f t="shared" ref="E2:E5" si="2">CONCATENATE(A2&amp;".cshtml")</f>
         <v>checkTable.cshtml</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3">
         <v>41197</v>
@@ -2150,35 +2473,35 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B5" si="3">CONCATENATE("jui.j"&amp;A3&amp;".css")</f>
+        <v>jui.jradioTable.css</v>
+      </c>
+      <c r="C3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>jui.jradioTable.css</v>
-      </c>
-      <c r="C3" s="2" t="str">
+        <v>jui.jradioTable.js</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>jui.jradioTable.js</v>
-      </c>
-      <c r="D3" s="2" t="str">
+        <v>radioTableHtml.cshtml</v>
+      </c>
+      <c r="E3" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>radioTableHtml.cshtml</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>radioTable.cshtml</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3">
         <v>41199</v>
@@ -2189,35 +2512,35 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>jui.jtree.css</v>
+      </c>
+      <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>jui.jtree.css</v>
-      </c>
-      <c r="C4" s="2" t="str">
+        <v>jui.jtree.js</v>
+      </c>
+      <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>jui.jtree.js</v>
-      </c>
-      <c r="D4" s="2" t="str">
+        <v>treeHtml.cshtml</v>
+      </c>
+      <c r="E4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>treeHtml.cshtml</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>tree.cshtml</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3">
         <v>41201</v>
@@ -2228,35 +2551,35 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>jui.jtext.css</v>
+      </c>
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>jui.jtext.css</v>
-      </c>
-      <c r="C5" s="2" t="str">
+        <v>jui.jtext.js</v>
+      </c>
+      <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>jui.jtext.js</v>
-      </c>
-      <c r="D5" s="2" t="str">
+        <v>textHtml.cshtml</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>textHtml.cshtml</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="3"/>
         <v>text.cshtml</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J5" s="3">
         <v>41199</v>
@@ -2267,7 +2590,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ref="B6:B7" si="4">CONCATENATE("jui.j"&amp;A6&amp;".css")</f>
@@ -2286,16 +2609,16 @@
         <v>checkTree.cshtml</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J6" s="3">
         <v>41207</v>
@@ -2306,7 +2629,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2325,16 +2648,16 @@
         <v>radioTree.cshtml</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J7" s="3">
         <v>41211</v>
@@ -2345,7 +2668,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ref="B8" si="8">CONCATENATE("jui.j"&amp;A8&amp;".css")</f>
@@ -2364,16 +2687,16 @@
         <v>search.cshtml</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3">
         <v>41208</v>
@@ -2390,18 +2713,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2411,110 +2735,284 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="str">
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="str">
         <f>CONCATENATE("jui.j"&amp;A2&amp;".css")</f>
-        <v>jui.jsearch.css</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("jui.j"&amp;A2&amp;".js")</f>
-        <v>jui.jsearch.js</v>
-      </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE(A2&amp;"Html.cshtml")</f>
-        <v>searchHtml.cshtml</v>
-      </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(A2&amp;".cshtml")</f>
-        <v>search.cshtml</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
+        <v>jui.jscrollbar.css</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C8" si="0">CONCATENATE("jui.j"&amp;A2&amp;".js")</f>
+        <v>jui.jscrollbar.js</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D8" si="1">CONCATENATE(A2&amp;"Html.cshtml")</f>
+        <v>scrollbarHtml.cshtml</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:E8" si="2">CONCATENATE(A2&amp;".cshtml")</f>
+        <v>scrollbar.cshtml</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3">
+        <v>41197</v>
+      </c>
+      <c r="K2" s="3">
+        <v>41198</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="str">
-        <f>CONCATENATE("jui.j"&amp;A3&amp;".css")</f>
-        <v>jui.jtree.css</v>
-      </c>
-      <c r="C3" t="str">
-        <f>CONCATENATE("jui.j"&amp;A3&amp;".js")</f>
-        <v>jui.jtree.js</v>
-      </c>
-      <c r="D3" t="str">
-        <f>CONCATENATE(A3&amp;"Html.cshtml")</f>
-        <v>treeHtml.cshtml</v>
-      </c>
-      <c r="E3" t="str">
-        <f>CONCATENATE(A3&amp;".cshtml")</f>
-        <v>tree.cshtml</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8">
+      <formula1>"未开始,HTML完成,开发完成,测试完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>